--- a/baseline/llm_geminipro/geminipro_analysis/no_url_2-shot/Validation_Phishing_2_shot_no_url.xlsx
+++ b/baseline/llm_geminipro/geminipro_analysis/no_url_2-shot/Validation_Phishing_2_shot_no_url.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\llm_geminipro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0_App_Development_Folder\Playwright_Crawler_New\baseline\llm_geminipro\geminipro_analysis\no_url_2-shot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBCED09-E909-47AB-B94D-1E7A5AE3E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FFE01-00AF-4EA8-83FE-75ACDD83B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="537">
   <si>
     <t>Date (of Dataset)</t>
   </si>
@@ -355,9 +355,6 @@
     <t>https://autoiothiatowers.web.app/?err=bgvaEwNjbvR1mcxsut5kn6wUjrDWnwMhku71migLdcGk9p9qIy32jwuPel5Fu8gQxCcvjCvgq9kh1feitMrsmevlTofB5ue5S3kttUohl9J7uFi6fSSlratsy5ii7Z3nzBHjk8ciJ3Jg9djgOa1p0IRp5n5EL6q0rE095jGw3ufpbuHZ7qCXqb98u8qyqS42yuW8FrooY5GMvXcqmw1vN7D6hqBZkDpq77hBckhz&amp;dispatch=72eeif6d04b6kei9heji679dbk3e2k&amp;id=9e747gj6d2khff2563d4kdd70akd525e4hb6d6j4ifek7</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>0b76b3e005e3ca0e9c577edd049376573aab854630d9122315ea217f859f02d5</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t>0/66</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>26th Oct 2023</t>
   </si>
   <si>
@@ -592,9 +586,6 @@
     <t>https://www.officesoftcn.com/newbuy.html?onlineid=1669170002311</t>
   </si>
   <si>
-    <t>Microsoft 365</t>
-  </si>
-  <si>
     <t>decb4739984ec2225f8efc4077abd0c53e94eb89e36e3a96f739d102a3bdb10f</t>
   </si>
   <si>
@@ -994,9 +985,6 @@
     <t>Jek-Miner</t>
   </si>
   <si>
-    <t>Jek Miner</t>
-  </si>
-  <si>
     <t>a2b09eff278a6f854c9490d28c5cd24640586cce1a7a86b8d70a23d50c496765</t>
   </si>
   <si>
@@ -1088,9 +1076,6 @@
   </si>
   <si>
     <t>http://896e365.com/</t>
-  </si>
-  <si>
-    <t>365bet</t>
   </si>
   <si>
     <t>4eb1b73e859aa7916e1e9e31f044df21f7a25357147cf9dfff1dbdd2acd68566</t>
@@ -1825,10 +1810,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,7 +2035,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2336,11 +2321,11 @@
         <v>48</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="AB3" s="4" t="str">
         <f>IF(AA3="Indeterminate", "Indeterminate", IF(D3=AA3, "Yes", "No"))</f>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC3" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3759,11 +3744,11 @@
         <v>39</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="AB18" s="4" t="str">
         <f>IF(AA18="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA18, ".", ""))=TRIM(SUBSTITUTE(D18, ".", "")), "Yes", "No"))</f>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC18" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3775,13 +3760,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>53</v>
@@ -3854,7 +3839,7 @@
         <v>39</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB19" s="4" t="str">
         <f>IF(AA19="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA19, ".", ""))=TRIM(SUBSTITUTE(D19, ".", "")), "Yes", "No"))</f>
@@ -3864,23 +3849,23 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="AE19" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="AF19" s="16"/>
+      <c r="AE19" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>68</v>
@@ -3953,7 +3938,7 @@
         <v>39</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB20" s="4" t="s">
         <v>39</v>
@@ -3963,9 +3948,9 @@
         <v>Yes</v>
       </c>
       <c r="AE20" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF20" s="17">
+        <v>521</v>
+      </c>
+      <c r="AF20" s="16">
         <f>COUNTIFS(AC2:AC158, "Yes")</f>
         <v>81</v>
       </c>
@@ -3975,16 +3960,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>34</v>
@@ -4003,7 +3988,7 @@
         <v>Yes</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>34</v>
@@ -4022,7 +4007,7 @@
         <v>Yes</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>34</v>
@@ -4054,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB21" s="4" t="s">
         <v>39</v>
@@ -4064,7 +4049,7 @@
         <v>Yes</v>
       </c>
       <c r="AE21" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AF21">
         <f>COUNTIFS(AC2:AC158, "No")</f>
@@ -4076,16 +4061,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>34</v>
@@ -4166,7 +4151,7 @@
         <v>No</v>
       </c>
       <c r="AE22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AF22">
         <f>COUNTIF(AC2:AC158, "Indeterminate") + + COUNTIF(AC2:AC161, "Payload exceeds limit")</f>
@@ -4178,10 +4163,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>82</v>
@@ -4206,7 +4191,7 @@
         <v>Yes</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>34</v>
@@ -4225,7 +4210,7 @@
         <v>Yes</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>34</v>
@@ -4257,7 +4242,7 @@
         <v>39</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB23" s="4" t="s">
         <v>39</v>
@@ -4267,7 +4252,7 @@
         <v>Yes</v>
       </c>
       <c r="AE23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF23">
         <f>SUM(AF20:AF22)</f>
@@ -4279,13 +4264,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>44</v>
@@ -4358,7 +4343,7 @@
         <v>39</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB24" s="4" t="str">
         <f t="shared" ref="AB24:AB31" si="6">IF(AA24="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA24, ".", ""))=TRIM(SUBSTITUTE(D24, ".", "")), "Yes", "No"))</f>
@@ -4374,16 +4359,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>34</v>
@@ -4402,7 +4387,7 @@
         <v>Yes</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>34</v>
@@ -4440,7 +4425,7 @@
         <v>Yes</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X25" s="4" t="s">
         <v>39</v>
@@ -4453,25 +4438,25 @@
         <v>39</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="AB25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC25" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="AE25" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF25" s="17">
+        <v>525</v>
+      </c>
+      <c r="AF25" s="16">
         <f>COUNTIFS(Y:Y, "Yes", Z:Z, "Yes")</f>
         <v>78</v>
       </c>
       <c r="AG25" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
@@ -4479,13 +4464,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>45</v>
@@ -4545,7 +4530,7 @@
         <v>Yes</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X26" s="4" t="s">
         <v>39</v>
@@ -4558,7 +4543,7 @@
         <v>39</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB26" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4569,14 +4554,14 @@
         <v>Yes</v>
       </c>
       <c r="AE26" t="s">
-        <v>532</v>
-      </c>
-      <c r="AF26" s="17">
+        <v>527</v>
+      </c>
+      <c r="AF26" s="16">
         <f>COUNTIFS(Y:Y, "Yes", Z:Z, "No")</f>
         <v>50</v>
       </c>
       <c r="AG26" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
@@ -4584,13 +4569,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>57</v>
@@ -4650,7 +4635,7 @@
         <v>Yes</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>39</v>
@@ -4663,7 +4648,7 @@
         <v>48</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB27" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4674,14 +4659,14 @@
         <v>No</v>
       </c>
       <c r="AE27" t="s">
-        <v>534</v>
-      </c>
-      <c r="AF27" s="17">
+        <v>529</v>
+      </c>
+      <c r="AF27" s="16">
         <f>COUNTIFS(Y:Y, "No", Z:Z, "Yes")</f>
         <v>7</v>
       </c>
       <c r="AG27" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
@@ -4689,10 +4674,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>102</v>
@@ -4755,7 +4740,7 @@
         <v>Yes</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X28" s="4" t="s">
         <v>39</v>
@@ -4779,14 +4764,14 @@
         <v>No</v>
       </c>
       <c r="AE28" t="s">
-        <v>536</v>
-      </c>
-      <c r="AF28" s="17">
+        <v>531</v>
+      </c>
+      <c r="AF28" s="16">
         <f>COUNTIFS(Y:Y, "No", Z:Z, "No")</f>
         <v>3</v>
       </c>
       <c r="AG28" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
@@ -4794,13 +4779,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>46</v>
@@ -4822,7 +4807,7 @@
         <v>Yes</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>34</v>
@@ -4860,7 +4845,7 @@
         <v>Yes</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X29" s="4" t="s">
         <v>39</v>
@@ -4873,33 +4858,33 @@
         <v>39</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="AB29" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC29" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
       <c r="AE29" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF29" s="17">
+        <v>533</v>
+      </c>
+      <c r="AF29" s="16">
         <f>COUNTIF(Z:Z, "Indeterminate") + COUNTIF(Z:Z, "Payload exceeds limit")</f>
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>
@@ -4986,7 +4971,7 @@
         <v>No</v>
       </c>
       <c r="AE30" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF30">
         <f>SUM(AF25:AF29)</f>
@@ -4995,13 +4980,13 @@
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>43</v>
@@ -5077,11 +5062,11 @@
         <v>39</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="AB31" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC31" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5090,16 +5075,16 @@
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>33</v>
@@ -5121,7 +5106,7 @@
         <v>Yes</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>34</v>
@@ -5140,7 +5125,7 @@
         <v>No</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>34</v>
@@ -5172,7 +5157,7 @@
         <v>48</v>
       </c>
       <c r="AA32" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB32" s="4" t="s">
         <v>39</v>
@@ -5184,16 +5169,16 @@
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>53</v>
@@ -5266,7 +5251,7 @@
         <v>48</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AB33" s="4" t="str">
         <f>IF(AA33="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA33, ".", ""))=TRIM(SUBSTITUTE(D33, ".", "")), "Yes", "No"))</f>
@@ -5276,23 +5261,23 @@
         <f t="shared" si="4"/>
         <v>No</v>
       </c>
-      <c r="AE33" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="AF33" s="16"/>
+      <c r="AE33" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF33" s="17"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>45</v>
@@ -5352,7 +5337,7 @@
         <v>Yes</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X34" s="4" t="s">
         <v>48</v>
@@ -5362,43 +5347,43 @@
         <v>No</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA34" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB34" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC34" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AE34" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF34" s="17">
+        <v>535</v>
+      </c>
+      <c r="AF34" s="16">
         <f>COUNTIFS(AB2:AB158, "Yes")</f>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AG34" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>34</v>
@@ -5417,7 +5402,7 @@
         <v>Yes</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>34</v>
@@ -5455,7 +5440,7 @@
         <v>Yes</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X35" s="4" t="s">
         <v>39</v>
@@ -5465,43 +5450,43 @@
         <v>Yes</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA35" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB35" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC35" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AE35" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF35" s="17">
+        <v>536</v>
+      </c>
+      <c r="AF35" s="16">
         <f>COUNTIFS(AB2:AB158, "No")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>34</v>
@@ -5520,7 +5505,7 @@
         <v>No</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>34</v>
@@ -5539,7 +5524,7 @@
         <v>No</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>34</v>
@@ -5571,7 +5556,7 @@
         <v>48</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB36" s="4" t="str">
         <f>IF(AA36="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA36, ".", ""))=TRIM(SUBSTITUTE(D36, ".", "")), "Yes", "No"))</f>
@@ -5582,31 +5567,31 @@
         <v>Yes</v>
       </c>
       <c r="AE36" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF36" s="17">
+        <v>533</v>
+      </c>
+      <c r="AF36" s="16">
         <f>COUNTIFS(AB2:AB158, "Indeterminate") + COUNTIFS(AB2:AB161, "Payload exceeds limit")</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AG36" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>34</v>
@@ -5676,7 +5661,7 @@
         <v>48</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB37" s="4" t="s">
         <v>39</v>
@@ -5686,7 +5671,7 @@
         <v>No</v>
       </c>
       <c r="AE37" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF37">
         <f>SUM(AF34:AF36)</f>
@@ -5695,19 +5680,19 @@
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>34</v>
@@ -5777,11 +5762,11 @@
         <v>39</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="AB38" s="4" t="str">
         <f>IF(AA38="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA38, ".", ""))=TRIM(SUBSTITUTE(D38, ".", "")), "Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="AC38" s="4" t="str">
         <f t="shared" si="4"/>
@@ -5790,16 +5775,16 @@
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>36</v>
@@ -5821,7 +5806,7 @@
         <v>Yes</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>34</v>
@@ -5840,7 +5825,7 @@
         <v>Yes</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>34</v>
@@ -5872,7 +5857,7 @@
         <v>48</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AB39" s="4" t="s">
         <v>39</v>
@@ -5884,16 +5869,16 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>99</v>
@@ -5966,7 +5951,7 @@
         <v>39</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AB40" s="4" t="str">
         <f>IF(AA40="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA40, ".", ""))=TRIM(SUBSTITUTE(D40, ".", "")), "Yes", "No"))</f>
@@ -5979,16 +5964,16 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>68</v>
@@ -6061,7 +6046,7 @@
         <v>48</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AB41" s="4" t="str">
         <f>IF(AA41="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA41, ".", ""))=TRIM(SUBSTITUTE(D41, ".", "")), "Yes", "No"))</f>
@@ -6074,19 +6059,19 @@
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>34</v>
@@ -6105,7 +6090,7 @@
         <v>Yes</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>34</v>
@@ -6124,7 +6109,7 @@
         <v>Yes</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>34</v>
@@ -6156,7 +6141,7 @@
         <v>39</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB42" s="4" t="s">
         <v>39</v>
@@ -6168,13 +6153,13 @@
     </row>
     <row r="43" spans="1:33" ht="12.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>88</v>
@@ -6250,7 +6235,7 @@
         <v>39</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AB43" s="4" t="str">
         <f>IF(AA43="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA43, ".", ""))=TRIM(SUBSTITUTE(D43, ".", "")), "Yes", "No"))</f>
@@ -6263,16 +6248,16 @@
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>53</v>
@@ -6294,7 +6279,7 @@
         <v>Yes</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>34</v>
@@ -6313,7 +6298,7 @@
         <v>No</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>34</v>
@@ -6357,19 +6342,19 @@
     </row>
     <row r="45" spans="1:33" ht="12.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>34</v>
@@ -6388,7 +6373,7 @@
         <v>Yes</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>34</v>
@@ -6407,7 +6392,7 @@
         <v>Yes</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>34</v>
@@ -6452,19 +6437,19 @@
     </row>
     <row r="46" spans="1:33" ht="12.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>34</v>
@@ -6483,7 +6468,7 @@
         <v>No</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>34</v>
@@ -6502,7 +6487,7 @@
         <v>No</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>34</v>
@@ -6531,30 +6516,30 @@
         <v>No</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA46" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB46" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC46" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="12.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>53</v>
@@ -6627,7 +6612,7 @@
         <v>39</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AB47" s="4" t="str">
         <f>IF(AA47="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA47, ".", ""))=TRIM(SUBSTITUTE(D47, ".", "")), "Yes", "No"))</f>
@@ -6640,19 +6625,19 @@
     </row>
     <row r="48" spans="1:33" ht="12.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>34</v>
@@ -6690,7 +6675,7 @@
         <v>Yes</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>34</v>
@@ -6719,30 +6704,30 @@
         <v>No</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA48" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB48" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC48" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="12.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>44</v>
@@ -6802,7 +6787,7 @@
         <v>Yes</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X49" s="4" t="s">
         <v>39</v>
@@ -6815,32 +6800,32 @@
         <v>39</v>
       </c>
       <c r="AA49" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AB49" s="4" t="str">
         <f t="shared" ref="AB49:AB59" si="11">IF(AA49="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA49, ".", ""))=TRIM(SUBSTITUTE(D49, ".", "")), "Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="AC49" s="4" t="str">
-        <f t="shared" ref="AC49:AC80" si="12">IF(Z49="Indeterminate", "Indeterminate", IF(Y49=Z49, "Yes", "No"))</f>
+        <f t="shared" ref="AC49:AC79" si="12">IF(Z49="Indeterminate", "Indeterminate", IF(Y49=Z49, "Yes", "No"))</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="12.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>34</v>
@@ -6907,30 +6892,30 @@
         <v>Yes</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA50" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB50" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC50" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="12.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>60</v>
@@ -7003,7 +6988,7 @@
         <v>48</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AB51" s="4" t="str">
         <f t="shared" si="11"/>
@@ -7016,16 +7001,16 @@
     </row>
     <row r="52" spans="1:29" ht="12.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>65</v>
@@ -7098,7 +7083,7 @@
         <v>48</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AB52" s="4" t="str">
         <f t="shared" si="11"/>
@@ -7111,13 +7096,13 @@
     </row>
     <row r="53" spans="1:29" ht="12.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
@@ -7180,7 +7165,7 @@
         <v>Yes</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="X53" s="4" t="s">
         <v>39</v>
@@ -7206,19 +7191,19 @@
     </row>
     <row r="54" spans="1:29" ht="12.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>34</v>
@@ -7256,7 +7241,7 @@
         <v>Yes</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>34</v>
@@ -7288,11 +7273,11 @@
         <v>39</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="AB54" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC54" s="4" t="str">
         <f t="shared" si="12"/>
@@ -7301,19 +7286,19 @@
     </row>
     <row r="55" spans="1:29" ht="12.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>34</v>
@@ -7381,11 +7366,11 @@
         <v>48</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="AB55" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC55" s="4" t="str">
         <f t="shared" si="12"/>
@@ -7394,16 +7379,16 @@
     </row>
     <row r="56" spans="1:29" ht="12.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>99</v>
@@ -7474,7 +7459,7 @@
         <v>39</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AB56" s="4" t="str">
         <f t="shared" si="11"/>
@@ -7487,13 +7472,13 @@
     </row>
     <row r="57" spans="1:29" ht="12.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>85</v>
@@ -7580,16 +7565,16 @@
     </row>
     <row r="58" spans="1:29" ht="12.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>46</v>
@@ -7660,7 +7645,7 @@
         <v>48</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AB58" s="4" t="str">
         <f t="shared" si="11"/>
@@ -7673,13 +7658,13 @@
     </row>
     <row r="59" spans="1:29" ht="12.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>88</v>
@@ -7766,13 +7751,13 @@
     </row>
     <row r="60" spans="1:29" ht="12.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>82</v>
@@ -7835,7 +7820,7 @@
         <v>Yes</v>
       </c>
       <c r="W60" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="X60" s="4" t="s">
         <v>39</v>
@@ -7860,13 +7845,13 @@
     </row>
     <row r="61" spans="1:29" ht="12.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>82</v>
@@ -7875,7 +7860,7 @@
         <v>93</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>35</v>
@@ -7929,7 +7914,7 @@
         <v>Yes</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="X61" s="4" t="s">
         <v>39</v>
@@ -7954,13 +7939,13 @@
     </row>
     <row r="62" spans="1:29" ht="12.75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -8049,16 +8034,16 @@
     </row>
     <row r="63" spans="1:29" ht="12.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>68</v>
@@ -8128,33 +8113,33 @@
         <v>Yes</v>
       </c>
       <c r="Z63" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA63" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB63" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC63" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="12.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>34</v>
@@ -8221,30 +8206,30 @@
         <v>No</v>
       </c>
       <c r="Z64" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA64" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB64" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC64" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="12.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>60</v>
@@ -8317,7 +8302,7 @@
         <v>48</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB65" s="4" t="str">
         <f t="shared" si="13"/>
@@ -8330,13 +8315,13 @@
     </row>
     <row r="66" spans="1:29" ht="12.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>32</v>
@@ -8399,7 +8384,7 @@
         <v>Yes</v>
       </c>
       <c r="W66" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X66" s="4" t="s">
         <v>39</v>
@@ -8425,13 +8410,13 @@
     </row>
     <row r="67" spans="1:29" ht="12.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>32</v>
@@ -8520,19 +8505,19 @@
     </row>
     <row r="68" spans="1:29" ht="12.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>64</v>
@@ -8613,13 +8598,13 @@
     </row>
     <row r="69" spans="1:29" ht="12.75" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>52</v>
@@ -8706,13 +8691,13 @@
     </row>
     <row r="70" spans="1:29" ht="12.75" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>88</v>
@@ -8756,7 +8741,7 @@
         <v>Yes</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R70" s="4" t="s">
         <v>34</v>
@@ -8799,16 +8784,16 @@
     </row>
     <row r="71" spans="1:29" ht="12.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>68</v>
@@ -8879,7 +8864,7 @@
         <v>39</v>
       </c>
       <c r="AA71" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB71" s="4" t="str">
         <f t="shared" si="13"/>
@@ -8892,13 +8877,13 @@
     </row>
     <row r="72" spans="1:29" ht="12.75" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>52</v>
@@ -8987,16 +8972,16 @@
     </row>
     <row r="73" spans="1:29" ht="12.75" customHeight="1">
       <c r="A73" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="C73" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>46</v>
@@ -9056,7 +9041,7 @@
         <v>Yes</v>
       </c>
       <c r="W73" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X73" s="4" t="s">
         <v>39</v>
@@ -9069,7 +9054,7 @@
         <v>39</v>
       </c>
       <c r="AA73" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AB73" s="4" t="s">
         <v>39</v>
@@ -9081,19 +9066,19 @@
     </row>
     <row r="74" spans="1:29" ht="12.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>34</v>
@@ -9112,7 +9097,7 @@
         <v>No</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>34</v>
@@ -9131,7 +9116,7 @@
         <v>No</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R74" s="4" t="s">
         <v>34</v>
@@ -9163,7 +9148,7 @@
         <v>39</v>
       </c>
       <c r="AA74" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AB74" s="4" t="str">
         <f>IF(AA74="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA74, ".", ""))=TRIM(SUBSTITUTE(D74, ".", "")), "Yes", "No"))</f>
@@ -9176,16 +9161,16 @@
     </row>
     <row r="75" spans="1:29" ht="12.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>68</v>
@@ -9258,7 +9243,7 @@
         <v>48</v>
       </c>
       <c r="AA75" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB75" s="4" t="s">
         <v>39</v>
@@ -9270,16 +9255,16 @@
     </row>
     <row r="76" spans="1:29" ht="12.75" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>57</v>
@@ -9352,7 +9337,7 @@
         <v>39</v>
       </c>
       <c r="AA76" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AB76" s="4" t="str">
         <f>IF(AA76="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA76, ".", ""))=TRIM(SUBSTITUTE(D76, ".", "")), "Yes", "No"))</f>
@@ -9365,16 +9350,16 @@
     </row>
     <row r="77" spans="1:29" ht="12.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>65</v>
@@ -9447,7 +9432,7 @@
         <v>48</v>
       </c>
       <c r="AA77" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB77" s="4" t="s">
         <v>39</v>
@@ -9459,13 +9444,13 @@
     </row>
     <row r="78" spans="1:29" ht="12.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>85</v>
@@ -9554,16 +9539,16 @@
     </row>
     <row r="79" spans="1:29" ht="12.75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>57</v>
@@ -9623,7 +9608,7 @@
         <v>Yes</v>
       </c>
       <c r="W79" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="X79" s="4" t="s">
         <v>39</v>
@@ -9636,7 +9621,7 @@
         <v>39</v>
       </c>
       <c r="AA79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB79" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9649,16 +9634,16 @@
     </row>
     <row r="80" spans="1:29" ht="12.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>93</v>
@@ -9728,30 +9713,30 @@
         <v>Yes</v>
       </c>
       <c r="Z80" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA80" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB80" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC80" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="12.75" customHeight="1">
       <c r="A81" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="C81" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>60</v>
@@ -9824,7 +9809,7 @@
         <v>39</v>
       </c>
       <c r="AA81" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AB81" s="4" t="str">
         <f t="shared" si="18"/>
@@ -9837,13 +9822,13 @@
     </row>
     <row r="82" spans="1:29" ht="12.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>52</v>
@@ -9932,19 +9917,19 @@
     </row>
     <row r="83" spans="1:29" ht="12.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>34</v>
@@ -10014,11 +9999,11 @@
         <v>39</v>
       </c>
       <c r="AA83" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AB83" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="AC83" s="4" t="str">
         <f t="shared" si="19"/>
@@ -10027,19 +10012,19 @@
     </row>
     <row r="84" spans="1:29" ht="12.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>34</v>
@@ -10058,7 +10043,7 @@
         <v>Yes</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>34</v>
@@ -10077,7 +10062,7 @@
         <v>Yes</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="R84" s="4" t="s">
         <v>34</v>
@@ -10109,7 +10094,7 @@
         <v>39</v>
       </c>
       <c r="AA84" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AB84" s="4" t="str">
         <f t="shared" si="18"/>
@@ -10122,16 +10107,16 @@
     </row>
     <row r="85" spans="1:29" ht="12.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>65</v>
@@ -10207,7 +10192,7 @@
         <v>49</v>
       </c>
       <c r="AB85" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AC85" s="4" t="str">
         <f t="shared" si="19"/>
@@ -10216,19 +10201,19 @@
     </row>
     <row r="86" spans="1:29" ht="12.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>34</v>
@@ -10298,7 +10283,7 @@
         <v>39</v>
       </c>
       <c r="AA86" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AB86" s="4" t="str">
         <f>IF(AA86="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA86, ".", ""))=TRIM(SUBSTITUTE(D86, ".", "")), "Yes", "No"))</f>
@@ -10311,13 +10296,13 @@
     </row>
     <row r="87" spans="1:29" ht="12.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>85</v>
@@ -10406,13 +10391,13 @@
     </row>
     <row r="88" spans="1:29" ht="12.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>102</v>
@@ -10501,13 +10486,13 @@
     </row>
     <row r="89" spans="1:29" ht="12.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>52</v>
@@ -10596,16 +10581,16 @@
     </row>
     <row r="90" spans="1:29" ht="12.75" customHeight="1">
       <c r="A90" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>338</v>
-      </c>
       <c r="D90" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>68</v>
@@ -10627,7 +10612,7 @@
         <v>Yes</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>34</v>
@@ -10646,7 +10631,7 @@
         <v>Yes</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R90" s="4" t="s">
         <v>34</v>
@@ -10678,10 +10663,10 @@
         <v>39</v>
       </c>
       <c r="AA90" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AB90" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AC90" s="4" t="str">
         <f t="shared" si="19"/>
@@ -10690,16 +10675,16 @@
     </row>
     <row r="91" spans="1:29" ht="12.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>60</v>
@@ -10772,7 +10757,7 @@
         <v>39</v>
       </c>
       <c r="AA91" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB91" s="4" t="s">
         <v>39</v>
@@ -10784,13 +10769,13 @@
     </row>
     <row r="92" spans="1:29" ht="12.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>52</v>
@@ -10879,13 +10864,13 @@
     </row>
     <row r="93" spans="1:29" ht="12.75" customHeight="1">
       <c r="A93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>52</v>
@@ -10974,16 +10959,16 @@
     </row>
     <row r="94" spans="1:29" ht="12.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>45</v>
@@ -11056,11 +11041,11 @@
         <v>39</v>
       </c>
       <c r="AA94" s="4" t="s">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="AB94" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="AC94" s="4" t="str">
         <f t="shared" si="19"/>
@@ -11069,16 +11054,16 @@
     </row>
     <row r="95" spans="1:29" ht="12.75" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>60</v>
@@ -11151,7 +11136,7 @@
         <v>48</v>
       </c>
       <c r="AA95" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB95" s="4" t="str">
         <f t="shared" si="20"/>
@@ -11164,16 +11149,16 @@
     </row>
     <row r="96" spans="1:29" ht="12.75" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>57</v>
@@ -11246,7 +11231,7 @@
         <v>39</v>
       </c>
       <c r="AA96" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AB96" s="4" t="str">
         <f t="shared" si="20"/>
@@ -11259,16 +11244,16 @@
     </row>
     <row r="97" spans="1:29" ht="12.75" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>71</v>
@@ -11290,7 +11275,7 @@
         <v>Yes</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>34</v>
@@ -11309,7 +11294,7 @@
         <v>Yes</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R97" s="4" t="s">
         <v>34</v>
@@ -11341,7 +11326,7 @@
         <v>39</v>
       </c>
       <c r="AA97" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AB97" s="4" t="str">
         <f t="shared" si="20"/>
@@ -11354,19 +11339,19 @@
     </row>
     <row r="98" spans="1:29" ht="12.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>64</v>
@@ -11436,7 +11421,7 @@
         <v>39</v>
       </c>
       <c r="AA98" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AB98" s="4" t="str">
         <f t="shared" si="20"/>
@@ -11449,16 +11434,16 @@
     </row>
     <row r="99" spans="1:29" ht="12.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>44</v>
@@ -11499,7 +11484,7 @@
         <v>Yes</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R99" s="4" t="s">
         <v>34</v>
@@ -11518,7 +11503,7 @@
         <v>Yes</v>
       </c>
       <c r="W99" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="X99" s="4" t="s">
         <v>39</v>
@@ -11528,10 +11513,10 @@
         <v>Yes</v>
       </c>
       <c r="Z99" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AA99" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AB99" s="4" t="str">
         <f t="shared" si="20"/>
@@ -11544,13 +11529,13 @@
     </row>
     <row r="100" spans="1:29" ht="12.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>32</v>
@@ -11613,7 +11598,7 @@
         <v>Yes</v>
       </c>
       <c r="W100" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="X100" s="4" t="s">
         <v>39</v>
@@ -11639,13 +11624,13 @@
     </row>
     <row r="101" spans="1:29" ht="12.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>32</v>
@@ -11708,7 +11693,7 @@
         <v>Yes</v>
       </c>
       <c r="W101" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="X101" s="4" t="s">
         <v>39</v>
@@ -11721,11 +11706,11 @@
         <v>39</v>
       </c>
       <c r="AA101" s="4" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="AB101" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>No</v>
+        <v>Indeterminate</v>
       </c>
       <c r="AC101" s="4" t="str">
         <f t="shared" si="19"/>
@@ -11734,13 +11719,13 @@
     </row>
     <row r="102" spans="1:29" ht="12.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>82</v>
@@ -11803,7 +11788,7 @@
         <v>Yes</v>
       </c>
       <c r="W102" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X102" s="4" t="s">
         <v>39</v>
@@ -11816,7 +11801,7 @@
         <v>39</v>
       </c>
       <c r="AA102" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB102" s="4" t="s">
         <v>39</v>
@@ -11828,16 +11813,16 @@
     </row>
     <row r="103" spans="1:29" ht="12.75" customHeight="1">
       <c r="A103" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>68</v>
@@ -11897,7 +11882,7 @@
         <v>Yes</v>
       </c>
       <c r="W103" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X103" s="4" t="s">
         <v>39</v>
@@ -11910,7 +11895,7 @@
         <v>48</v>
       </c>
       <c r="AA103" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AB103" s="4" t="s">
         <v>39</v>
@@ -11922,13 +11907,13 @@
     </row>
     <row r="104" spans="1:29" ht="12.75" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>92</v>
@@ -11991,7 +11976,7 @@
         <v>Yes</v>
       </c>
       <c r="W104" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X104" s="4" t="s">
         <v>39</v>
@@ -12017,19 +12002,19 @@
     </row>
     <row r="105" spans="1:29" ht="12.75" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>64</v>
@@ -12048,7 +12033,7 @@
         <v>Yes</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>34</v>
@@ -12067,7 +12052,7 @@
         <v>Yes</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R105" s="4" t="s">
         <v>34</v>
@@ -12086,7 +12071,7 @@
         <v>Yes</v>
       </c>
       <c r="W105" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X105" s="4" t="s">
         <v>39</v>
@@ -12112,13 +12097,13 @@
     </row>
     <row r="106" spans="1:29" ht="12.75" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>92</v>
@@ -12162,7 +12147,7 @@
         <v>Yes</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R106" s="4" t="s">
         <v>34</v>
@@ -12181,7 +12166,7 @@
         <v>Yes</v>
       </c>
       <c r="W106" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X106" s="4" t="s">
         <v>39</v>
@@ -12207,16 +12192,16 @@
     </row>
     <row r="107" spans="1:29" ht="12.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>44</v>
@@ -12257,7 +12242,7 @@
         <v>Yes</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R107" s="4" t="s">
         <v>34</v>
@@ -12276,7 +12261,7 @@
         <v>Yes</v>
       </c>
       <c r="W107" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="X107" s="4" t="s">
         <v>39</v>
@@ -12289,7 +12274,7 @@
         <v>39</v>
       </c>
       <c r="AA107" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AB107" s="4" t="str">
         <f>IF(AA107="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA107, ".", ""))=TRIM(SUBSTITUTE(D107, ".", "")), "Yes", "No"))</f>
@@ -12302,13 +12287,13 @@
     </row>
     <row r="108" spans="1:29" ht="12.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>82</v>
@@ -12371,7 +12356,7 @@
         <v>Yes</v>
       </c>
       <c r="W108" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X108" s="4" t="s">
         <v>39</v>
@@ -12396,16 +12381,16 @@
     </row>
     <row r="109" spans="1:29" ht="12.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>45</v>
@@ -12465,7 +12450,7 @@
         <v>Yes</v>
       </c>
       <c r="W109" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X109" s="4" t="s">
         <v>39</v>
@@ -12478,7 +12463,7 @@
         <v>39</v>
       </c>
       <c r="AA109" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AB109" s="4" t="str">
         <f>IF(AA109="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA109, ".", ""))=TRIM(SUBSTITUTE(D109, ".", "")), "Yes", "No"))</f>
@@ -12491,13 +12476,13 @@
     </row>
     <row r="110" spans="1:29" ht="12.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>82</v>
@@ -12560,7 +12545,7 @@
         <v>Yes</v>
       </c>
       <c r="W110" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="X110" s="4" t="s">
         <v>39</v>
@@ -12585,16 +12570,16 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>99</v>
@@ -12654,7 +12639,7 @@
         <v>Yes</v>
       </c>
       <c r="W111" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X111" s="4" t="s">
         <v>39</v>
@@ -12667,7 +12652,7 @@
         <v>39</v>
       </c>
       <c r="AA111" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB111" s="4" t="s">
         <v>39</v>
@@ -12679,16 +12664,16 @@
     </row>
     <row r="112" spans="1:29" ht="12.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>68</v>
@@ -12710,7 +12695,7 @@
         <v>Yes</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>34</v>
@@ -12748,7 +12733,7 @@
         <v>Yes</v>
       </c>
       <c r="W112" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X112" s="4" t="s">
         <v>39</v>
@@ -12773,13 +12758,13 @@
     </row>
     <row r="113" spans="1:29" ht="12.75" customHeight="1">
       <c r="A113" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>85</v>
@@ -12842,7 +12827,7 @@
         <v>Yes</v>
       </c>
       <c r="W113" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X113" s="4" t="s">
         <v>39</v>
@@ -12868,16 +12853,16 @@
     </row>
     <row r="114" spans="1:29" ht="12.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>57</v>
@@ -12937,7 +12922,7 @@
         <v>Yes</v>
       </c>
       <c r="W114" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="X114" s="4" t="s">
         <v>39</v>
@@ -12950,7 +12935,7 @@
         <v>39</v>
       </c>
       <c r="AA114" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB114" s="4" t="str">
         <f>IF(AA114="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA114, ".", ""))=TRIM(SUBSTITUTE(D114, ".", "")), "Yes", "No"))</f>
@@ -12963,19 +12948,19 @@
     </row>
     <row r="115" spans="1:29" ht="12.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>34</v>
@@ -12994,7 +12979,7 @@
         <v>Yes</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>34</v>
@@ -13032,7 +13017,7 @@
         <v>Yes</v>
       </c>
       <c r="W115" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X115" s="4" t="s">
         <v>39</v>
@@ -13042,30 +13027,30 @@
         <v>Yes</v>
       </c>
       <c r="Z115" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA115" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB115" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC115" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="12.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>65</v>
@@ -13125,7 +13110,7 @@
         <v>Yes</v>
       </c>
       <c r="W116" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X116" s="4" t="s">
         <v>48</v>
@@ -13138,7 +13123,7 @@
         <v>39</v>
       </c>
       <c r="AA116" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AB116" s="4" t="s">
         <v>39</v>
@@ -13150,16 +13135,16 @@
     </row>
     <row r="117" spans="1:29" ht="12.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>45</v>
@@ -13219,7 +13204,7 @@
         <v>Yes</v>
       </c>
       <c r="W117" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X117" s="4" t="s">
         <v>39</v>
@@ -13232,7 +13217,7 @@
         <v>39</v>
       </c>
       <c r="AA117" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AB117" s="4" t="str">
         <f>IF(AA117="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA117, ".", ""))=TRIM(SUBSTITUTE(D117, ".", "")), "Yes", "No"))</f>
@@ -13245,13 +13230,13 @@
     </row>
     <row r="118" spans="1:29" ht="12.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>102</v>
@@ -13314,7 +13299,7 @@
         <v>Yes</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X118" s="4" t="s">
         <v>39</v>
@@ -13340,19 +13325,19 @@
     </row>
     <row r="119" spans="1:29" ht="12.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>34</v>
@@ -13371,7 +13356,7 @@
         <v>Yes</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>34</v>
@@ -13390,7 +13375,7 @@
         <v>Yes</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R119" s="4" t="s">
         <v>34</v>
@@ -13409,7 +13394,7 @@
         <v>Yes</v>
       </c>
       <c r="W119" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X119" s="4" t="s">
         <v>39</v>
@@ -13422,7 +13407,7 @@
         <v>39</v>
       </c>
       <c r="AA119" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AB119" s="4" t="str">
         <f>IF(AA119="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA119, ".", ""))=TRIM(SUBSTITUTE(D119, ".", "")), "Yes", "No"))</f>
@@ -13435,16 +13420,16 @@
     </row>
     <row r="120" spans="1:29" ht="12.75" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>89</v>
@@ -13466,7 +13451,7 @@
         <v>Yes</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L120" s="4" t="s">
         <v>34</v>
@@ -13504,7 +13489,7 @@
         <v>Yes</v>
       </c>
       <c r="W120" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X120" s="4" t="s">
         <v>39</v>
@@ -13517,7 +13502,7 @@
         <v>39</v>
       </c>
       <c r="AA120" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB120" s="4" t="s">
         <v>39</v>
@@ -13529,13 +13514,13 @@
     </row>
     <row r="121" spans="1:29" ht="12.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>102</v>
@@ -13598,7 +13583,7 @@
         <v>Yes</v>
       </c>
       <c r="W121" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X121" s="4" t="s">
         <v>39</v>
@@ -13624,16 +13609,16 @@
     </row>
     <row r="122" spans="1:29" ht="12.75" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>45</v>
@@ -13693,7 +13678,7 @@
         <v>Yes</v>
       </c>
       <c r="W122" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X122" s="4" t="s">
         <v>39</v>
@@ -13706,7 +13691,7 @@
         <v>48</v>
       </c>
       <c r="AA122" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AB122" s="4" t="str">
         <f t="shared" si="26"/>
@@ -13719,16 +13704,16 @@
     </row>
     <row r="123" spans="1:29" ht="12.75" customHeight="1">
       <c r="A123" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>36</v>
@@ -13750,7 +13735,7 @@
         <v>Yes</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>34</v>
@@ -13769,7 +13754,7 @@
         <v>Yes</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R123" s="4" t="s">
         <v>34</v>
@@ -13788,7 +13773,7 @@
         <v>Yes</v>
       </c>
       <c r="W123" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X123" s="4" t="s">
         <v>39</v>
@@ -13798,30 +13783,30 @@
         <v>Yes</v>
       </c>
       <c r="Z123" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA123" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB123" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC123" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="124" spans="1:29" ht="12.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>93</v>
@@ -13881,7 +13866,7 @@
         <v>Yes</v>
       </c>
       <c r="W124" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X124" s="4" t="s">
         <v>39</v>
@@ -13894,7 +13879,7 @@
         <v>48</v>
       </c>
       <c r="AA124" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB124" s="4" t="str">
         <f t="shared" si="26"/>
@@ -13907,19 +13892,19 @@
     </row>
     <row r="125" spans="1:29" ht="12.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>34</v>
@@ -13976,7 +13961,7 @@
         <v>Yes</v>
       </c>
       <c r="W125" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X125" s="4" t="s">
         <v>39</v>
@@ -13989,7 +13974,7 @@
         <v>39</v>
       </c>
       <c r="AA125" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AB125" s="4" t="str">
         <f t="shared" si="26"/>
@@ -14002,13 +13987,13 @@
     </row>
     <row r="126" spans="1:29" ht="12.75" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>32</v>
@@ -14071,7 +14056,7 @@
         <v>Yes</v>
       </c>
       <c r="W126" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X126" s="4" t="s">
         <v>39</v>
@@ -14097,13 +14082,13 @@
     </row>
     <row r="127" spans="1:29" ht="12.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>102</v>
@@ -14166,7 +14151,7 @@
         <v>Yes</v>
       </c>
       <c r="W127" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X127" s="4" t="s">
         <v>39</v>
@@ -14192,16 +14177,16 @@
     </row>
     <row r="128" spans="1:29" ht="12.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>33</v>
@@ -14261,7 +14246,7 @@
         <v>Yes</v>
       </c>
       <c r="W128" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X128" s="4" t="s">
         <v>39</v>
@@ -14274,7 +14259,7 @@
         <v>39</v>
       </c>
       <c r="AA128" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AB128" s="4" t="s">
         <v>39</v>
@@ -14286,13 +14271,13 @@
     </row>
     <row r="129" spans="1:29" ht="12.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>102</v>
@@ -14355,7 +14340,7 @@
         <v>Yes</v>
       </c>
       <c r="W129" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X129" s="4" t="s">
         <v>39</v>
@@ -14381,16 +14366,16 @@
     </row>
     <row r="130" spans="1:29" ht="12.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>93</v>
@@ -14450,20 +14435,20 @@
         <v>Yes</v>
       </c>
       <c r="W130" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="X130" s="4" t="s">
         <v>39</v>
       </c>
       <c r="Y130" s="4" t="str">
-        <f t="shared" ref="Y130:Y161" si="30">IF(AND(X130="Yes", OR(J130="Yes", Q130="Yes", V130="Yes")), "Yes","No")</f>
+        <f t="shared" ref="Y130:Y151" si="30">IF(AND(X130="Yes", OR(J130="Yes", Q130="Yes", V130="Yes")), "Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="Z130" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AA130" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AB130" s="4" t="s">
         <v>39</v>
@@ -14475,13 +14460,13 @@
     </row>
     <row r="131" spans="1:29" ht="12.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>85</v>
@@ -14544,7 +14529,7 @@
         <v>Yes</v>
       </c>
       <c r="W131" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X131" s="4" t="s">
         <v>39</v>
@@ -14570,13 +14555,13 @@
     </row>
     <row r="132" spans="1:29" ht="12.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>85</v>
@@ -14639,7 +14624,7 @@
         <v>Yes</v>
       </c>
       <c r="W132" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X132" s="4" t="s">
         <v>39</v>
@@ -14665,16 +14650,16 @@
     </row>
     <row r="133" spans="1:29" ht="12.75" customHeight="1">
       <c r="A133" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>46</v>
@@ -14734,7 +14719,7 @@
         <v>Yes</v>
       </c>
       <c r="W133" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X133" s="4" t="s">
         <v>39</v>
@@ -14747,7 +14732,7 @@
         <v>48</v>
       </c>
       <c r="AA133" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AB133" s="4" t="str">
         <f t="shared" si="31"/>
@@ -14760,16 +14745,16 @@
     </row>
     <row r="134" spans="1:29" ht="12.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>45</v>
@@ -14829,7 +14814,7 @@
         <v>Yes</v>
       </c>
       <c r="W134" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X134" s="4" t="s">
         <v>39</v>
@@ -14855,16 +14840,16 @@
     </row>
     <row r="135" spans="1:29" ht="12.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>45</v>
@@ -14924,7 +14909,7 @@
         <v>Yes</v>
       </c>
       <c r="W135" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X135" s="4" t="s">
         <v>39</v>
@@ -14937,7 +14922,7 @@
         <v>39</v>
       </c>
       <c r="AA135" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AB135" s="4" t="str">
         <f t="shared" si="31"/>
@@ -14950,16 +14935,16 @@
     </row>
     <row r="136" spans="1:29" ht="12.75" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>68</v>
@@ -14981,7 +14966,7 @@
         <v>Yes</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L136" s="4" t="s">
         <v>34</v>
@@ -15019,7 +15004,7 @@
         <v>Yes</v>
       </c>
       <c r="W136" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X136" s="4" t="s">
         <v>39</v>
@@ -15032,7 +15017,7 @@
         <v>39</v>
       </c>
       <c r="AA136" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AB136" s="4" t="str">
         <f t="shared" si="31"/>
@@ -15045,13 +15030,13 @@
     </row>
     <row r="137" spans="1:29" ht="12.75" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>85</v>
@@ -15114,7 +15099,7 @@
         <v>Yes</v>
       </c>
       <c r="W137" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X137" s="4" t="s">
         <v>39</v>
@@ -15140,19 +15125,19 @@
     </row>
     <row r="138" spans="1:29" ht="12.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>34</v>
@@ -15171,7 +15156,7 @@
         <v>Yes</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L138" s="4" t="s">
         <v>34</v>
@@ -15190,7 +15175,7 @@
         <v>Yes</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R138" s="4" t="s">
         <v>34</v>
@@ -15209,7 +15194,7 @@
         <v>Yes</v>
       </c>
       <c r="W138" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X138" s="4" t="s">
         <v>39</v>
@@ -15222,7 +15207,7 @@
         <v>48</v>
       </c>
       <c r="AA138" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AB138" s="4" t="str">
         <f t="shared" si="31"/>
@@ -15235,13 +15220,13 @@
     </row>
     <row r="139" spans="1:29" ht="12.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>85</v>
@@ -15304,7 +15289,7 @@
         <v>Yes</v>
       </c>
       <c r="W139" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X139" s="4" t="s">
         <v>39</v>
@@ -15330,19 +15315,19 @@
     </row>
     <row r="140" spans="1:29" ht="12.75" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>34</v>
@@ -15361,7 +15346,7 @@
         <v>Yes</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L140" s="4" t="s">
         <v>34</v>
@@ -15380,7 +15365,7 @@
         <v>Yes</v>
       </c>
       <c r="Q140" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R140" s="4" t="s">
         <v>34</v>
@@ -15399,7 +15384,7 @@
         <v>Yes</v>
       </c>
       <c r="W140" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X140" s="4" t="s">
         <v>39</v>
@@ -15425,19 +15410,19 @@
     </row>
     <row r="141" spans="1:29" ht="12.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>34</v>
@@ -15456,7 +15441,7 @@
         <v>Yes</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L141" s="4" t="s">
         <v>34</v>
@@ -15475,7 +15460,7 @@
         <v>Yes</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R141" s="4" t="s">
         <v>34</v>
@@ -15494,7 +15479,7 @@
         <v>Yes</v>
       </c>
       <c r="W141" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X141" s="4" t="s">
         <v>39</v>
@@ -15507,7 +15492,7 @@
         <v>48</v>
       </c>
       <c r="AA141" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AB141" s="4" t="str">
         <f t="shared" si="31"/>
@@ -15520,19 +15505,19 @@
     </row>
     <row r="142" spans="1:29" ht="12.75" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>34</v>
@@ -15551,7 +15536,7 @@
         <v>Yes</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L142" s="4" t="s">
         <v>34</v>
@@ -15570,7 +15555,7 @@
         <v>Yes</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R142" s="4" t="s">
         <v>34</v>
@@ -15589,7 +15574,7 @@
         <v>Yes</v>
       </c>
       <c r="W142" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X142" s="4" t="s">
         <v>39</v>
@@ -15602,7 +15587,7 @@
         <v>48</v>
       </c>
       <c r="AA142" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AB142" s="4" t="s">
         <v>39</v>
@@ -15614,19 +15599,19 @@
     </row>
     <row r="143" spans="1:29" ht="12.75" customHeight="1">
       <c r="A143" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="C143" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>34</v>
@@ -15645,7 +15630,7 @@
         <v>Yes</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>34</v>
@@ -15664,7 +15649,7 @@
         <v>Yes</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="R143" s="4" t="s">
         <v>34</v>
@@ -15683,7 +15668,7 @@
         <v>Yes</v>
       </c>
       <c r="W143" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X143" s="4" t="s">
         <v>39</v>
@@ -15693,33 +15678,33 @@
         <v>Yes</v>
       </c>
       <c r="Z143" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AA143" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AB143" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AC143" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="12.75" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>102</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>34</v>
@@ -15738,7 +15723,7 @@
         <v>Yes</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L144" s="4" t="s">
         <v>34</v>
@@ -15757,7 +15742,7 @@
         <v>Yes</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R144" s="4" t="s">
         <v>34</v>
@@ -15776,7 +15761,7 @@
         <v>Yes</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X144" s="4" t="s">
         <v>39</v>
@@ -15802,19 +15787,19 @@
     </row>
     <row r="145" spans="1:29" ht="12.75" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>34</v>
@@ -15833,7 +15818,7 @@
         <v>Yes</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>34</v>
@@ -15852,7 +15837,7 @@
         <v>Yes</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="R145" s="4" t="s">
         <v>34</v>
@@ -15871,7 +15856,7 @@
         <v>Yes</v>
       </c>
       <c r="W145" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X145" s="4" t="s">
         <v>39</v>
@@ -15884,7 +15869,7 @@
         <v>39</v>
       </c>
       <c r="AA145" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AB145" s="4" t="s">
         <v>39</v>
@@ -15896,19 +15881,19 @@
     </row>
     <row r="146" spans="1:29" ht="12.75" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>34</v>
@@ -15927,7 +15912,7 @@
         <v>Yes</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>34</v>
@@ -15965,7 +15950,7 @@
         <v>Yes</v>
       </c>
       <c r="W146" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X146" s="4" t="s">
         <v>39</v>
@@ -15978,7 +15963,7 @@
         <v>48</v>
       </c>
       <c r="AA146" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB146" s="4" t="str">
         <f t="shared" ref="AB146:AB151" si="33">IF(AA146="Indeterminate", "Indeterminate", IF(TRIM(SUBSTITUTE(AA146, ".", ""))=TRIM(SUBSTITUTE(D146, ".", "")), "Yes", "No"))</f>
@@ -15991,19 +15976,19 @@
     </row>
     <row r="147" spans="1:29" ht="12.75" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>34</v>
@@ -16022,7 +16007,7 @@
         <v>Yes</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L147" s="4" t="s">
         <v>34</v>
@@ -16041,7 +16026,7 @@
         <v>Yes</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="R147" s="4" t="s">
         <v>34</v>
@@ -16060,7 +16045,7 @@
         <v>Yes</v>
       </c>
       <c r="W147" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X147" s="4" t="s">
         <v>39</v>
@@ -16073,7 +16058,7 @@
         <v>48</v>
       </c>
       <c r="AA147" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AB147" s="4" t="str">
         <f t="shared" si="33"/>
@@ -16086,19 +16071,19 @@
     </row>
     <row r="148" spans="1:29" ht="12.75" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>85</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>34</v>
@@ -16117,7 +16102,7 @@
         <v>Yes</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>34</v>
@@ -16136,7 +16121,7 @@
         <v>Yes</v>
       </c>
       <c r="Q148" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="R148" s="4" t="s">
         <v>34</v>
@@ -16155,7 +16140,7 @@
         <v>Yes</v>
       </c>
       <c r="W148" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X148" s="4" t="s">
         <v>39</v>
@@ -16181,19 +16166,19 @@
     </row>
     <row r="149" spans="1:29" ht="12.75" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>34</v>
@@ -16212,7 +16197,7 @@
         <v>Yes</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L149" s="4" t="s">
         <v>34</v>
@@ -16231,7 +16216,7 @@
         <v>Yes</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="R149" s="4" t="s">
         <v>34</v>
@@ -16250,7 +16235,7 @@
         <v>Yes</v>
       </c>
       <c r="W149" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X149" s="4" t="s">
         <v>39</v>
@@ -16263,11 +16248,11 @@
         <v>39</v>
       </c>
       <c r="AA149" s="4" t="s">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="AB149" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="AC149" s="4" t="str">
         <f t="shared" si="32"/>
@@ -16276,19 +16261,19 @@
     </row>
     <row r="150" spans="1:29" ht="12.75" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>34</v>
@@ -16307,7 +16292,7 @@
         <v>Yes</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L150" s="4" t="s">
         <v>34</v>
@@ -16326,7 +16311,7 @@
         <v>Yes</v>
       </c>
       <c r="Q150" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R150" s="4" t="s">
         <v>34</v>
@@ -16345,7 +16330,7 @@
         <v>Yes</v>
       </c>
       <c r="W150" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X150" s="4" t="s">
         <v>39</v>
@@ -16358,7 +16343,7 @@
         <v>48</v>
       </c>
       <c r="AA150" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AB150" s="4" t="str">
         <f t="shared" si="33"/>
@@ -16371,19 +16356,19 @@
     </row>
     <row r="151" spans="1:29" ht="12.75" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>34</v>
@@ -16402,7 +16387,7 @@
         <v>Yes</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L151" s="4" t="s">
         <v>34</v>
@@ -16421,7 +16406,7 @@
         <v>Yes</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="R151" s="4" t="s">
         <v>34</v>
@@ -16440,7 +16425,7 @@
         <v>Yes</v>
       </c>
       <c r="W151" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X151" s="4" t="s">
         <v>39</v>
@@ -16453,7 +16438,7 @@
         <v>39</v>
       </c>
       <c r="AA151" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AB151" s="4" t="str">
         <f t="shared" si="33"/>
